--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2018_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2018_top_box_office.xlsx
@@ -496,36 +496,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Deadpool 2</t>
+          <t>Aquaman</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$318,491,426</t>
+          <t>$335,061,807</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Grinch</t>
+          <t>Deadpool 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$266,280,410</t>
+          <t>$318,491,426</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jumanji: Welcome to the Jungle</t>
+          <t>The Grinch</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$235,512,923</t>
+          <t>$270,620,950</t>
         </is>
       </c>
     </row>
@@ -556,84 +556,84 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Solo: A Star Wars Story</t>
+          <t>Bohemian Rhapsody</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$213,767,512</t>
+          <t>$216,428,042</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Venom</t>
+          <t>A Star Is Born</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$213,312,395</t>
+          <t>$215,288,866</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A Star Is Born</t>
+          <t>Solo: A Star Wars Story</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$201,157,885</t>
+          <t>$213,767,512</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aquaman</t>
+          <t>Venom</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$199,059,824</t>
+          <t>$213,515,506</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bohemian Rhapsody</t>
+          <t>Ralph Breaks the Internet</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$189,813,133</t>
+          <t>$201,091,711</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A Quiet Place</t>
+          <t>Spider-Man: Into the Spider-Verse</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$188,024,361</t>
+          <t>$190,241,310</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ralph Breaks the Internet</t>
+          <t>A Quiet Place</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$177,616,854</t>
+          <t>$188,024,361</t>
         </is>
       </c>
     </row>
@@ -645,31 +645,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$174,039,071</t>
+          <t>$174,532,921</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hotel Transylvania 3: Summer Vacation</t>
+          <t>Mary Poppins Returns</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$168,786,400</t>
+          <t>$171,958,438</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Hotel Transylvania 3: Summer Vacation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$159,336,510</t>
+          <t>$167,510,016</t>
         </is>
       </c>
     </row>
@@ -681,91 +681,91 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$156,781,859</t>
+          <t>$159,555,901</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The Meg</t>
+          <t>Halloween</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$145,443,742</t>
+          <t>$159,342,015</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ocean's Eight</t>
+          <t>The Meg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$140,218,711</t>
+          <t>$145,443,742</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ready Player One</t>
+          <t>Ocean's Eight</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$137,690,172</t>
+          <t>$140,218,711</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The Greatest Showman</t>
+          <t>Ready Player One</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$125,303,456</t>
+          <t>$137,690,172</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mamma Mia! Here We Go Again</t>
+          <t>Bumblebee</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$120,634,935</t>
+          <t>$127,195,589</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The Nun</t>
+          <t>Mamma Mia! Here We Go Again</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$117,450,119</t>
+          <t>$120,634,935</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Peter Rabbit</t>
+          <t>The Nun</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$115,253,424</t>
+          <t>$117,450,119</t>
         </is>
       </c>
     </row>
@@ -777,103 +777,103 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$112,448,520</t>
+          <t>$115,715,889</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>Peter Rabbit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$108,146,445</t>
+          <t>$115,253,424</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mary Poppins Returns</t>
+          <t>The Mule</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$105,930,461</t>
+          <t>$103,804,407</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VIII - The Last Jedi</t>
+          <t>The Equalizer 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$102,963,014</t>
+          <t>$102,084,362</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Equalizer 2</t>
+          <t>Rampage</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$102,084,362</t>
+          <t>$101,028,233</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rampage</t>
+          <t>A Wrinkle in Time</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$101,028,233</t>
+          <t>$100,478,608</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A Wrinkle in Time</t>
+          <t>Fifty Shades Freed</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$100,478,608</t>
+          <t>$100,407,760</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fifty Shades Freed</t>
+          <t>Christopher Robin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$100,407,760</t>
+          <t>$99,215,042</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Christopher Robin</t>
+          <t>Green Book</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$99,215,042</t>
+          <t>$85,080,171</t>
         </is>
       </c>
     </row>
@@ -897,1951 +897,1951 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$82,976,621</t>
+          <t>$83,240,103</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Post</t>
+          <t>Night School</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$80,143,337</t>
+          <t>$77,339,130</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Night School</t>
+          <t>The First Purge</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$77,316,580</t>
+          <t>$69,488,745</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bumblebee</t>
+          <t>Game Night</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$71,426,119</t>
+          <t>$69,179,066</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The First Purge</t>
+          <t>Book Club</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$69,488,745</t>
+          <t>$68,566,296</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Game Night</t>
+          <t>The House with a Clock in Its Walls</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$69,179,066</t>
+          <t>$68,549,695</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Book Club</t>
+          <t>Skyscraper</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$68,566,296</t>
+          <t>$68,420,120</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The House with a Clock in Its Walls</t>
+          <t>Insidious: The Last Key</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$68,536,400</t>
+          <t>$67,745,330</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Skyscraper</t>
+          <t>Instant Family</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$68,420,120</t>
+          <t>$67,363,237</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Insidious: The Last Key</t>
+          <t>Blockers</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$67,745,330</t>
+          <t>$60,311,495</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Instant Family</t>
+          <t>Pacific Rim: Uprising</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$64,845,006</t>
+          <t>$59,874,525</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Mule</t>
+          <t>Tomb Raider</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$64,720,334</t>
+          <t>$58,250,803</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Blockers</t>
+          <t>Maze Runner: The Death Cure</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$60,311,495</t>
+          <t>$58,032,443</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pacific Rim: Uprising</t>
+          <t>The Nutcracker and the Four Realms</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$59,874,525</t>
+          <t>$54,858,851</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tomb Raider</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$58,250,803</t>
+          <t>$54,730,625</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Maze Runner: The Death Cure</t>
+          <t>A Simple Favor</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$58,032,443</t>
+          <t>$53,548,586</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Life of the Party</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$54,730,625</t>
+          <t>$53,059,911</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Nutcracker and the Four Realms</t>
+          <t>The Predator</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$54,581,769</t>
+          <t>$51,024,708</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A Simple Favor</t>
+          <t>Overboard</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$53,548,586</t>
+          <t>$50,316,123</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Life of the Party</t>
+          <t>Sicario: Day of the Soldado</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$53,059,911</t>
+          <t>$50,072,235</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>The Predator</t>
+          <t>BlacKkKlansman</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$51,024,708</t>
+          <t>$49,275,340</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Overboard</t>
+          <t>I Feel Pretty</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$50,316,123</t>
+          <t>$48,795,601</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sicario: Day of the Soldado</t>
+          <t>Vice</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$50,072,235</t>
+          <t>$47,836,282</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>I Feel Pretty</t>
+          <t>Red Sparrow</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$48,795,601</t>
+          <t>$46,874,505</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BlacKkKlansman</t>
+          <t>Breaking In</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$48,271,960</t>
+          <t>$46,840,590</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The Shape of Water</t>
+          <t>Goosebumps 2: Haunted Halloween</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$48,189,258</t>
+          <t>$46,700,633</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Red Sparrow</t>
+          <t>12 Strong</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$46,874,505</t>
+          <t>$45,819,713</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Breaking In</t>
+          <t>Den of Thieves</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$46,840,590</t>
+          <t>$44,947,622</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goosebumps 2: Haunted Halloween</t>
+          <t>First Man</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$46,700,633</t>
+          <t>$44,936,545</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12 Strong</t>
+          <t>Hereditary</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$45,819,713</t>
+          <t>$44,069,456</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Den of Thieves</t>
+          <t>Acrimony</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$44,947,622</t>
+          <t>$43,549,096</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>First Man</t>
+          <t>Sherlock Gnomes</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$44,923,035</t>
+          <t>$43,242,871</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hereditary</t>
+          <t>Uncle Drew</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$44,069,456</t>
+          <t>$42,469,946</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Acrimony</t>
+          <t>Widows</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$43,549,096</t>
+          <t>$42,402,632</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sherlock Gnomes</t>
+          <t>Truth or Dare</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$43,242,871</t>
+          <t>$41,411,015</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Uncle Drew</t>
+          <t>Paddington 2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$42,469,946</t>
+          <t>$40,891,591</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Widows</t>
+          <t>Love, Simon</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$41,904,173</t>
+          <t>$40,826,341</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pitch Perfect 3</t>
+          <t>Second Act</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$41,596,925</t>
+          <t>$39,282,227</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Truth or Dare</t>
+          <t>The Commuter</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$41,411,015</t>
+          <t>$36,343,858</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Paddington 2</t>
+          <t>The 15:17 to Paris</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$40,891,591</t>
+          <t>$36,276,286</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Love, Simon</t>
+          <t>Mile 22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$40,826,341</t>
+          <t>$36,108,758</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Darkest Hour</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$38,335,553</t>
+          <t>$35,857,181</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>The Commuter</t>
+          <t>Peppermint</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$36,343,858</t>
+          <t>$35,418,723</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>The 15:17 to Paris</t>
+          <t>The Favourite</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$36,276,286</t>
+          <t>$34,366,783</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mile 22</t>
+          <t>Death Wish</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$36,108,758</t>
+          <t>$34,017,028</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>The Spy Who Dumped Me</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$35,857,181</t>
+          <t>$33,562,069</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Peppermint</t>
+          <t>Annihilation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$35,418,723</t>
+          <t>$32,732,301</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Death Wish</t>
+          <t>Isle of Dogs</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$34,017,028</t>
+          <t>$32,015,231</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Spy Who Dumped Me</t>
+          <t>Nobody's Fool</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$33,562,069</t>
+          <t>$31,713,110</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Annihilation</t>
+          <t>Adrift</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$32,732,301</t>
+          <t>$31,445,012</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Green Book</t>
+          <t>Robin Hood</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$32,153,006</t>
+          <t>$30,824,628</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Isle of Dogs</t>
+          <t>Super Troopers 2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$32,015,231</t>
+          <t>$30,617,396</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nobody's Fool</t>
+          <t>Holmes &amp; Watson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$31,713,110</t>
+          <t>$30,573,626</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Adrift</t>
+          <t>Slender Man</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$31,445,012</t>
+          <t>$30,569,484</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ferdinand</t>
+          <t>Teen Titans GO! To the Movies</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$30,863,663</t>
+          <t>$29,790,236</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Robin Hood</t>
+          <t>The Hate U Give</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$30,645,013</t>
+          <t>$29,719,483</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Super Troopers 2</t>
+          <t>Searching</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$30,617,396</t>
+          <t>$26,020,957</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Slender Man</t>
+          <t>Winchester</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$30,569,484</t>
+          <t>$25,091,816</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Three Billboards Outside Ebbing, Missouri</t>
+          <t>On the Basis of Sex</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$30,349,111</t>
+          <t>$24,622,687</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>The Strangers: Prey at Night</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$29,891,816</t>
+          <t>$24,586,708</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Teen Titans GO! To the Movies</t>
+          <t>White Boy Rick</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$29,790,236</t>
+          <t>$24,011,188</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hostiles</t>
+          <t>Won't You Be My Neighbor?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$29,733,369</t>
+          <t>$22,835,787</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Hate U Give</t>
+          <t>Overlord</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$29,666,375</t>
+          <t>$21,704,844</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>I, Tonya</t>
+          <t>Proud Mary</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$27,581,081</t>
+          <t>$20,877,013</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Searching</t>
+          <t>The Happytime Murders</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$26,020,957</t>
+          <t>$20,706,452</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Winchester</t>
+          <t>SuperFly</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$25,091,816</t>
+          <t>$20,545,116</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The Strangers: Prey at Night</t>
+          <t>They Shall Not Grow Old</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$24,586,708</t>
+          <t>$17,956,913</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>White Boy Rick</t>
+          <t>Show Dogs</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$24,011,188</t>
+          <t>$17,857,020</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Second Act</t>
+          <t>Bad Times at the El Royale</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$23,544,942</t>
+          <t>$17,839,115</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Molly's Game</t>
+          <t>Operation Finale</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$23,403,264</t>
+          <t>$17,612,099</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Won't You Be My Neighbor?</t>
+          <t>Paul, Apostle of Christ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$22,835,787</t>
+          <t>$17,560,475</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Overlord</t>
+          <t>Free Solo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$21,704,844</t>
+          <t>$17,541,090</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Holmes &amp; Watson</t>
+          <t>Sorry to Bother You</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$21,249,250</t>
+          <t>$17,493,096</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Proud Mary</t>
+          <t>Chappaquiddick</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$20,877,013</t>
+          <t>$17,395,520</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>The Happytime Murders</t>
+          <t>Mary Queen of Scots</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$20,706,452</t>
+          <t>$16,468,499</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Phantom Thread</t>
+          <t>Forever My Girl</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$20,670,365</t>
+          <t>$16,376,066</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SuperFly</t>
+          <t>Mortal Engines</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$20,545,116</t>
+          <t>$15,951,040</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Vice</t>
+          <t>Hunter Killer</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$19,776,167</t>
+          <t>$15,767,460</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Show Dogs</t>
+          <t>If Beale Street Could Talk</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$17,857,020</t>
+          <t>$14,915,773</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bad Times at the El Royale</t>
+          <t>The Girl in the Spider's Web</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$17,839,115</t>
+          <t>$14,841,338</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Operation Finale</t>
+          <t>The Possession of Hannah Grace</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$17,612,099</t>
+          <t>$14,837,422</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Paul, Apostle of Christ</t>
+          <t>RBG</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$17,560,475</t>
+          <t>$14,017,361</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>Eighth Grade</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$17,525,810</t>
+          <t>$13,539,709</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Sorry to Bother You</t>
+          <t>The Darkest Minds</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$17,493,096</t>
+          <t>$12,695,691</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Chappaquiddick</t>
+          <t>Three Identical Strangers</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$17,395,520</t>
+          <t>$12,320,845</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Forever My Girl</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$16,376,066</t>
+          <t>$11,977,130</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>The Favourite</t>
+          <t>Padmaavat</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$15,888,465</t>
+          <t>$11,846,060</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hunter Killer</t>
+          <t>The Old Man &amp; the Gun</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$15,767,460</t>
+          <t>$11,277,120</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mortal Engines</t>
+          <t>Hell Fest</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$14,894,175</t>
+          <t>$11,107,431</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The Girl in the Spider's Web</t>
+          <t>Welcome to Marwen</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$14,841,338</t>
+          <t>$10,763,520</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The Possession of Hannah Grace</t>
+          <t>The Miracle Season</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$14,622,210</t>
+          <t>$10,230,620</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RBG</t>
+          <t>The Wife</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$14,017,361</t>
+          <t>$9,601,092</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Eighth Grade</t>
+          <t>Midnight Sun</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$13,539,709</t>
+          <t>$9,561,064</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Call Me by Your Name</t>
+          <t>Tully</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$13,020,786</t>
+          <t>$9,369,755</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The Darkest Minds</t>
+          <t>Traffik</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$12,695,691</t>
+          <t>$9,186,156</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>All the Money in the World</t>
+          <t>Unfriended: Dark Web</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$12,401,327</t>
+          <t>$8,866,745</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Three Identical Strangers</t>
+          <t>Can You Ever Forgive Me?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$12,320,845</t>
+          <t>$8,803,865</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>Early Man</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$11,977,130</t>
+          <t>$8,267,544</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Padmaavat</t>
+          <t>The Death of Stalin</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$11,846,060</t>
+          <t>$8,047,856</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Free Solo</t>
+          <t>Sanju</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$11,240,573</t>
+          <t>$7,909,317</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>The Old Man &amp; the Gun</t>
+          <t>Unsane</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$11,197,012</t>
+          <t>$7,732,899</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hell Fest</t>
+          <t>Beautiful Boy</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$11,107,431</t>
+          <t>$7,649,973</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wonder</t>
+          <t>Pandas</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$10,863,515</t>
+          <t>$7,574,012</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>The Miracle Season</t>
+          <t>Mid90s</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$10,230,620</t>
+          <t>$7,362,439</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mary Queen of Scots</t>
+          <t>Dog Days</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$9,726,230</t>
+          <t>$6,809,080</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Midnight Sun</t>
+          <t>Boy Erased</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$9,561,064</t>
+          <t>$6,788,692</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tully</t>
+          <t>Hotel Artemis</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$9,369,755</t>
+          <t>$6,708,147</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Traffik</t>
+          <t>A-X-L</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$9,186,156</t>
+          <t>$6,501,381</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Unfriended: Dark Web</t>
+          <t>Fahrenheit 11/9</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$8,866,745</t>
+          <t>$6,352,306</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Welcome to Marwen</t>
+          <t>Unbroken: Path to Redemption</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$8,357,895</t>
+          <t>$6,216,897</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Early Man</t>
+          <t>The Hurricane Heist</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$8,267,544</t>
+          <t>$6,115,825</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The Wife</t>
+          <t>Every Day</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$8,198,156</t>
+          <t>$6,102,076</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The Death of Stalin</t>
+          <t>Once Upon a Deadpool2018 Re-release</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$8,047,856</t>
+          <t>$6,100,309</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>They Shall Not Grow Old</t>
+          <t>Leave No Trace</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$8,031,290</t>
+          <t>$6,046,104</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sanju</t>
+          <t>Death of a Nation</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$7,909,317</t>
+          <t>$5,885,881</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Unsane</t>
+          <t>My Hero Academia: Two Heroes</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$7,732,899</t>
+          <t>$5,754,556</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Beautiful Boy</t>
+          <t>God's Not Dead: A Light in Darkness</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$7,587,613</t>
+          <t>$5,728,940</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Can You Ever Forgive Me?</t>
+          <t>Kin</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$7,530,304</t>
+          <t>$5,718,096</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mid90s</t>
+          <t>Stan &amp; Ollie</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$7,362,439</t>
+          <t>$5,470,235</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Downsizing</t>
+          <t>Colette</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$7,289,080</t>
+          <t>$5,137,622</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dog Days</t>
+          <t>Simmba</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$6,809,080</t>
+          <t>$5,102,129</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Boy Erased</t>
+          <t>Action Point</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$6,774,202</t>
+          <t>$5,059,608</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hotel Artemis</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$6,708,147</t>
+          <t>$5,019,226</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A-X-L</t>
+          <t>Gringo</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$6,501,381</t>
+          <t>$4,969,853</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fahrenheit 11/9</t>
+          <t>Samson</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$6,352,306</t>
+          <t>$4,719,928</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Unbroken: Path to Redemption</t>
+          <t>Cold War2018 Re-release</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$6,216,897</t>
+          <t>$4,580,048</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Hurricane Heist</t>
+          <t>Amazing Grace</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$6,115,825</t>
+          <t>$4,450,456</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Every Day</t>
+          <t>Johnny English Strikes Again</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$6,102,076</t>
+          <t>$4,412,170</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Leave No Trace</t>
+          <t>Gotti</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$6,046,104</t>
+          <t>$4,343,227</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Once Upon a Deadpool2018 Re-release</t>
+          <t>Blindspotting</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$6,016,007</t>
+          <t>$4,333,394</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Death of a Nation</t>
+          <t>Burn the Stage: The Movie</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$5,885,881</t>
+          <t>$4,201,819</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pandas</t>
+          <t>Ya veremos</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$5,757,906</t>
+          <t>$4,165,949</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>My Hero Academia: Two Heroes</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$5,754,556</t>
+          <t>$4,152,000</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>God's Not Dead: A Light in Darkness</t>
+          <t>Life Itself</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$5,728,940</t>
+          <t>$4,102,648</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kin</t>
+          <t>Sgt. Stubby: An American Hero</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$5,718,096</t>
+          <t>$4,015,935</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Colette</t>
+          <t>Ben Is Back</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$5,137,622</t>
+          <t>$3,703,184</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Action Point</t>
+          <t>Gosnell: The Trial of America's Biggest Serial Killer</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$5,059,608</t>
+          <t>$3,679,893</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Indivisible</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$5,019,226</t>
+          <t>$3,511,417</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Gringo</t>
+          <t>The Oscar Nominated Short Films 2018: Live Action</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$4,969,853</t>
+          <t>$3,508,777</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Samson</t>
+          <t>Disobedience</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$4,719,928</t>
+          <t>$3,498,782</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Father Figures</t>
+          <t>First Reformed</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$4,615,957</t>
+          <t>$3,448,256</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Johnny English Strikes Again</t>
+          <t>Juliet, Naked</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$4,412,170</t>
+          <t>$3,444,895</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Gotti</t>
+          <t>Bad Samaritan</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$4,343,227</t>
+          <t>$3,435,047</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Blindspotting</t>
+          <t>7 Days in Entebbe</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$4,333,394</t>
+          <t>$3,326,885</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Burn the Stage: The Movie</t>
+          <t>Shoplifters</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$4,201,819</t>
+          <t>$3,313,513</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ya veremos</t>
+          <t>2001: A Space Odyssey2018 Re-release</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$4,165,949</t>
+          <t>$3,236,321</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Life Itself</t>
+          <t>The Sisters Brothers</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$4,102,648</t>
+          <t>$3,143,056</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sgt. Stubby: An American Hero</t>
+          <t>Thoroughbreds</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$4,015,323</t>
+          <t>$3,072,605</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Thor: Ragnarok</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$3,833,139</t>
+          <t>$3,026,351</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Gosnell: The Trial of America's Biggest Serial Killer</t>
+          <t>Made for More</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$3,679,893</t>
+          <t>$2,999,134</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Indivisible</t>
+          <t>American Animals</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$3,509,836</t>
+          <t>$2,856,954</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The Oscar Nominated Short Films 2018: Live Action</t>
+          <t>God Bless the Broken Road</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$3,508,777</t>
+          <t>$2,846,257</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Disobedience</t>
+          <t>La boda de Valentina</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$3,498,782</t>
+          <t>$2,783,739</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Justice League</t>
+          <t>Bharath Ane Nenu</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$3,478,000</t>
+          <t>$2,663,090</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>First Reformed</t>
+          <t>Qué León</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$3,448,256</t>
+          <t>$2,607,916</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Juliet, Naked</t>
+          <t>You Were Never Really Here</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$3,444,895</t>
+          <t>$2,528,078</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bad Samaritan</t>
+          <t>Suspiria</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$3,435,047</t>
+          <t>$2,483,472</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>7 Days in Entebbe</t>
+          <t>The Rider</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$3,326,885</t>
+          <t>$2,419,031</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>The Disaster Artist</t>
+          <t>Mary and the Witch's Flower</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$3,258,821</t>
+          <t>$2,418,404</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2001: A Space Odyssey2018 Re-release</t>
+          <t>Hearts Beat Loud</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$3,236,321</t>
+          <t>$2,386,251</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$3,222,000</t>
+          <t>$2,342,264</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>The Leisure Seeker</t>
+          <t>Papillon</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$3,212,298</t>
+          <t>$2,335,896</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>The Sisters Brothers</t>
+          <t>At Eternity's Gate</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$3,143,056</t>
+          <t>$2,294,915</t>
         </is>
       </c>
     </row>
